--- a/flask-server/test.xlsx
+++ b/flask-server/test.xlsx
@@ -1,43 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Semester</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Object oriented programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Package</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Object oriented programming</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
 institution 
@@ -479,15 +923,37 @@
 Signature of the head of department  
 Prof. PhD. Anca Andreica 
 </t>
-  </si>
-  <si>
-    <t>Compulsory</t>
-  </si>
-  <si>
-    <t>Data structures and algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5006_en_iuliana_2021_6012.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Data structures and algorithms</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -1069,12 +1535,37 @@
   Signature of the head of department 
 Prof. PhD. Diosan Laura 
 </t>
-  </si>
-  <si>
-    <t>Database management systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5022_en_marianzsu_2021_6156.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Database management systems</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
 institution  
@@ -1378,12 +1869,37 @@
   Signature of the head of department 
  Prof. Dr. Anca Andreica 
 </t>
-  </si>
-  <si>
-    <t>Computer systems architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem4_MLE5028_en_sabina_2021_6307.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Computer systems architecture</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education institution 
@@ -1786,12 +2302,37 @@
 _______________________  
 Prof. Dr. Anca ANDREICA 
 </t>
-  </si>
-  <si>
-    <t>Functional and logic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem1_MLE5004_en_vancea_2021_6043.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Functional and logic programming</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education institution  
 Babeş Bolyai University 
@@ -2165,12 +2706,37 @@
 ........................................... 
 Prof. Dr. Laura Dioșan 
 </t>
-  </si>
-  <si>
-    <t>Artificial intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">syllabus 
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem3_MLE5009_en_hfpop_2021_5976.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">syllabus 
 1.
 Information regarding the programme 
 1.1 Higher education 
@@ -2528,12 +3094,37 @@
 ...........................................
        ...........…........................... 
 </t>
-  </si>
-  <si>
-    <t>Formal languages and compiler design</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem4_MLE5029_en_mihoct_2021_5890.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formal languages and compiler design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -2932,12 +3523,37 @@
 ...........................................  
 Prof.dr. Laura Dioșan  
 </t>
-  </si>
-  <si>
-    <t>Operating systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem5_MLE5023_en_motogna_2021_5954.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Operating systems</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS
 1. Information regarding the programme
 1.1 Higher education
 institution
@@ -3481,12 +4097,37 @@
 ...........................................
 Prof. Dr. Anca Andreica
 </t>
-  </si>
-  <si>
-    <t>Mobile application programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5007_en_rares_2021_6056.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mobile application programming</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
 institution  
@@ -3934,12 +4575,37 @@
 ...........................................
 Prof. PhD. Anca Andreica
 </t>
-  </si>
-  <si>
-    <t>Computer networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem5_MLE5078_en_dan_2021_6089.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Computer networks</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
 institution  
@@ -4228,12 +4894,37 @@
 ...........................................  
 ...........…............................ 
 </t>
-  </si>
-  <si>
-    <t>Android things</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Compulsory</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem3_MLE5002_en_dadi_2021_6032.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Android things</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 Syllabus 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -4497,15 +5188,37 @@
   Signature of the head of department 
  ​Prof. PhD. Anca Andreica  
 </t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Computer science investigations -an iot perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5117_en_dan_2021_6259.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Computer science investigations -an iot perspective</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS
 1. Information regarding the programme
 1.1 Higher education institution
 Babes Bolyai University
@@ -5001,12 +5714,37 @@
 ..........................
 Prof. Dr. Diosan Laura-Silvia
 </t>
-  </si>
-  <si>
-    <t>Network and system administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS  
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5164_en_mircea_2021_6662.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Network and system administration</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS  
 1. Information regarding the programme  
 1.1 Higher education institution   
 Babeş Bolyai University  
@@ -5246,12 +5984,37 @@
 Date of approval  
           Signature of the head of department 
 </t>
-  </si>
-  <si>
-    <t>Design patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5072_en_radu.dragos_2021_5946.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Design patterns</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -5489,12 +6252,37 @@
 ........................................... 
 ...........…............................ 
 </t>
-  </si>
-  <si>
-    <t>Advanced compiler design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYLLABUS 
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE8115_en_arthur_2021_6232.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Advanced compiler design</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
 institution  
@@ -5812,12 +6600,37 @@
 ...........................................  
 ...........…............................ 
 </t>
-  </si>
-  <si>
-    <t>History of computer science</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5053_en_motogna_2021_5955.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>History of computer science</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -6054,12 +6867,37 @@
 ........................................... 
 Prof. PhD. Anca Andreica 
 </t>
-  </si>
-  <si>
-    <t>Academic ethics and integrity (in computer science)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE7007_en_forest_2021_6179.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Academic ethics and integrity (in computer science)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SYLLABUS 
 1. Information regarding the programme 
 1.1 Higher education 
@@ -6274,767 +7112,26 @@
 ...........................................  
 Prof.dr. Laura Dioșan  
 </t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="52.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Optional</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="6777.75">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="8784">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="5022">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="6487.5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="5576.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="6038.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="6276">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="7173.75">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="6698.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="4599.75">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="4282.5">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="6553.5">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="3860.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="3754.5">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="4916.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="4441.5">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="3464.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5159_en_motogna_2021_6476.pdf</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>